--- a/3/3/Swap promedio cámara 2005 a 2021 - Mensual.xlsx
+++ b/3/3/Swap promedio cámara 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -647,6 +647,12 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M199"/>
+  <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9169,6 +9175,88 @@
         <v>1.01</v>
       </c>
     </row>
+    <row r="200" spans="1:13">
+      <c r="A200" t="s">
+        <v>211</v>
+      </c>
+      <c r="B200">
+        <v>2.5</v>
+      </c>
+      <c r="C200">
+        <v>2.86</v>
+      </c>
+      <c r="D200">
+        <v>3.15</v>
+      </c>
+      <c r="E200">
+        <v>3.43</v>
+      </c>
+      <c r="F200">
+        <v>4.24</v>
+      </c>
+      <c r="G200">
+        <v>-1.59</v>
+      </c>
+      <c r="H200">
+        <v>-0.73</v>
+      </c>
+      <c r="I200">
+        <v>-0.35</v>
+      </c>
+      <c r="J200">
+        <v>-0.04</v>
+      </c>
+      <c r="K200">
+        <v>0.25</v>
+      </c>
+      <c r="L200">
+        <v>1.07</v>
+      </c>
+      <c r="M200">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
+      <c r="A201" t="s">
+        <v>212</v>
+      </c>
+      <c r="B201">
+        <v>2.91</v>
+      </c>
+      <c r="C201">
+        <v>3.24</v>
+      </c>
+      <c r="D201">
+        <v>3.52</v>
+      </c>
+      <c r="E201">
+        <v>3.76</v>
+      </c>
+      <c r="F201">
+        <v>4.45</v>
+      </c>
+      <c r="G201">
+        <v>-1.75</v>
+      </c>
+      <c r="H201">
+        <v>-0.85</v>
+      </c>
+      <c r="I201">
+        <v>-0.41</v>
+      </c>
+      <c r="J201">
+        <v>0.02</v>
+      </c>
+      <c r="K201">
+        <v>0.31</v>
+      </c>
+      <c r="L201">
+        <v>1.12</v>
+      </c>
+      <c r="M201">
+        <v>1.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2005 a 2021 - Mensual.xlsx
+++ b/3/3/Swap promedio cámara 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M201"/>
+  <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9257,6 +9260,47 @@
         <v>1.34</v>
       </c>
     </row>
+    <row r="202" spans="1:13">
+      <c r="A202" t="s">
+        <v>213</v>
+      </c>
+      <c r="B202">
+        <v>3.98</v>
+      </c>
+      <c r="C202">
+        <v>4.24</v>
+      </c>
+      <c r="D202">
+        <v>4.41</v>
+      </c>
+      <c r="E202">
+        <v>4.58</v>
+      </c>
+      <c r="F202">
+        <v>5.04</v>
+      </c>
+      <c r="G202">
+        <v>-1.17</v>
+      </c>
+      <c r="H202">
+        <v>0.01</v>
+      </c>
+      <c r="I202">
+        <v>0.38</v>
+      </c>
+      <c r="J202">
+        <v>0.79</v>
+      </c>
+      <c r="K202">
+        <v>1.07</v>
+      </c>
+      <c r="L202">
+        <v>1.65</v>
+      </c>
+      <c r="M202">
+        <v>1.82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/Swap promedio cámara 2005 a 2021 - Mensual.xlsx
+++ b/3/3/Swap promedio cámara 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9301,6 +9304,47 @@
         <v>1.82</v>
       </c>
     </row>
+    <row r="203" spans="1:13">
+      <c r="A203" t="s">
+        <v>214</v>
+      </c>
+      <c r="B203">
+        <v>5.07</v>
+      </c>
+      <c r="C203">
+        <v>5.26</v>
+      </c>
+      <c r="D203">
+        <v>5.4</v>
+      </c>
+      <c r="E203">
+        <v>5.54</v>
+      </c>
+      <c r="F203">
+        <v>5.92</v>
+      </c>
+      <c r="G203">
+        <v>-0.7</v>
+      </c>
+      <c r="H203">
+        <v>0.48</v>
+      </c>
+      <c r="I203">
+        <v>1.09</v>
+      </c>
+      <c r="J203">
+        <v>1.47</v>
+      </c>
+      <c r="K203">
+        <v>1.85</v>
+      </c>
+      <c r="L203">
+        <v>2.5</v>
+      </c>
+      <c r="M203">
+        <v>2.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
